--- a/SCBAA/2019/Region 6.xlsx
+++ b/SCBAA/2019/Region 6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49A4557-39F4-4115-BC27-4107147DA2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA233FE3-43B1-4535-AEDA-1DE27BB558DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12135" yWindow="1125" windowWidth="14730" windowHeight="12495" activeTab="2" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" activeTab="2" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Roxas" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -965,7 +972,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1079,6 +1086,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="78">
     <cellStyle name="20% - Accent1 2" xfId="32" xr:uid="{FB9CB918-83C1-4350-B8EF-A8207695D45A}"/>
@@ -3868,128 +3919,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBBFCB5-EF77-4E40-A1C7-2ACD7D1864D9}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="4.7109375" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="9" width="20.7109375" customWidth="1"/>
+    <col min="1" max="3" width="4.7109375" style="52" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" style="52" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="52" customWidth="1"/>
+    <col min="6" max="9" width="20.7109375" style="52" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="A2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="47" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="56" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="48"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="7"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="59"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="7"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="59"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="54"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="43">
@@ -3997,10 +4049,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="43">
@@ -4008,10 +4060,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="44">
@@ -4019,31 +4071,30 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8" t="s">
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>69866794.379999995</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8" t="s">
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="20"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="43">
@@ -4051,10 +4102,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="43">
@@ -4062,10 +4113,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="8" t="s">
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="54" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="43">
@@ -4073,62 +4124,61 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8" t="s">
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>50886665.109999992</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="54"/>
+      <c r="B20" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="21"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8" t="s">
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="43">
         <v>571067140</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8" t="s">
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8" t="s">
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="38">
@@ -4136,10 +4186,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8" t="s">
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="23">
@@ -4147,10 +4197,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8" t="s">
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="18">
@@ -4158,10 +4208,10 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8" t="s">
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54" t="s">
         <v>36</v>
       </c>
       <c r="E27" s="33">
@@ -4169,19 +4219,19 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8" t="s">
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8" t="s">
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="40">
@@ -4189,10 +4239,10 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8" t="s">
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54" t="s">
         <v>39</v>
       </c>
       <c r="E30" s="40">
@@ -4200,30 +4250,30 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8" t="s">
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="8"/>
+      <c r="D31" s="54"/>
       <c r="E31" s="43">
         <v>11870661.119999999</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8" t="s">
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="8"/>
+      <c r="D32" s="54"/>
       <c r="E32" s="21"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8" t="s">
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54" t="s">
         <v>42</v>
       </c>
       <c r="E33" s="23">
@@ -4231,10 +4281,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8" t="s">
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54" t="s">
         <v>43</v>
       </c>
       <c r="E34" s="23">
@@ -4242,10 +4292,10 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8" t="s">
+      <c r="A35" s="54"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54" t="s">
         <v>44</v>
       </c>
       <c r="E35" s="35">
@@ -4253,67 +4303,66 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8" t="s">
+      <c r="A36" s="54"/>
+      <c r="B36" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
       <c r="E36" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="54"/>
+      <c r="B37" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>703691260.61000001</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
       <c r="E38" s="26"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
       <c r="E39" s="23"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
       <c r="E40" s="23"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="54"/>
+      <c r="B41" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8" t="s">
+      <c r="A42" s="54"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E42" s="43">
@@ -4321,10 +4370,10 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8" t="s">
+      <c r="A43" s="54"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="43">
@@ -4332,10 +4381,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8" t="s">
+      <c r="A44" s="54"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E44" s="43">
@@ -4343,19 +4392,19 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="12" t="s">
+      <c r="A45" s="54"/>
+      <c r="B45" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
       <c r="E45" s="21"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="8" t="s">
+      <c r="A46" s="54"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="43">
@@ -4363,10 +4412,10 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8" t="s">
+      <c r="A47" s="54"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="43">
@@ -4374,10 +4423,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8" t="s">
+      <c r="A48" s="54"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="40">
@@ -4385,19 +4434,19 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="12" t="s">
+      <c r="A49" s="54"/>
+      <c r="B49" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
       <c r="E49" s="18"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="8" t="s">
+      <c r="A50" s="62"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E50" s="43">
@@ -4405,10 +4454,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8" t="s">
+      <c r="A51" s="54"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="45">
@@ -4416,10 +4465,10 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8" t="s">
+      <c r="A52" s="54"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E52" s="34">
@@ -4427,19 +4476,19 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="12" t="s">
+      <c r="A53" s="54"/>
+      <c r="B53" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
       <c r="E53" s="18"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8" t="s">
+      <c r="A54" s="54"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E54" s="18">
@@ -4447,10 +4496,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8" t="s">
+      <c r="A55" s="54"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="35">
@@ -4458,10 +4507,10 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="8" t="s">
+      <c r="A56" s="54"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E56" s="22">
@@ -4469,19 +4518,19 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="12" t="s">
+      <c r="A57" s="54"/>
+      <c r="B57" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
       <c r="E57" s="27"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8" t="s">
+      <c r="A58" s="54"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E58" s="35">
@@ -4489,10 +4538,10 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8" t="s">
+      <c r="A59" s="54"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="39">
@@ -4500,10 +4549,10 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8" t="s">
+      <c r="A60" s="54"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E60" s="35">
@@ -4511,19 +4560,19 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="12" t="s">
+      <c r="A61" s="54"/>
+      <c r="B61" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
       <c r="E61" s="27"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8" t="s">
+      <c r="A62" s="54"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E62" s="43">
@@ -4531,10 +4580,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8" t="s">
+      <c r="A63" s="54"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="43">
@@ -4542,10 +4591,10 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8" t="s">
+      <c r="A64" s="54"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E64" s="35">
@@ -4553,19 +4602,19 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="12" t="s">
+      <c r="A65" s="54"/>
+      <c r="B65" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
       <c r="E65" s="18"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8" t="s">
+      <c r="A66" s="54"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E66" s="43">
@@ -4573,10 +4622,10 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8" t="s">
+      <c r="A67" s="54"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="43">
@@ -4584,10 +4633,10 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8" t="s">
+      <c r="A68" s="54"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E68" s="41">
@@ -4595,19 +4644,19 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="B69" s="12" t="s">
+      <c r="A69" s="54"/>
+      <c r="B69" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="54"/>
       <c r="E69" s="21"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8" t="s">
+      <c r="A70" s="54"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E70" s="23">
@@ -4615,10 +4664,10 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8" t="s">
+      <c r="A71" s="54"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="54" t="s">
         <v>11</v>
       </c>
       <c r="E71" s="23">
@@ -4626,10 +4675,10 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8" t="s">
+      <c r="A72" s="54"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E72" s="28">
@@ -4637,28 +4686,28 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="B73" s="12" t="s">
+      <c r="A73" s="54"/>
+      <c r="B73" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="54"/>
       <c r="E73" s="21"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8" t="s">
+      <c r="A74" s="54"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D74" s="8"/>
+      <c r="D74" s="54"/>
       <c r="E74" s="23"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8" t="s">
+      <c r="A75" s="54"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="54" t="s">
         <v>47</v>
       </c>
       <c r="E75" s="43">
@@ -4666,10 +4715,10 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8" t="s">
+      <c r="A76" s="54"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="54" t="s">
         <v>48</v>
       </c>
       <c r="E76" s="37">
@@ -4677,19 +4726,19 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="15" t="s">
+      <c r="A77" s="54"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="D77" s="8"/>
+      <c r="D77" s="54"/>
       <c r="E77" s="23"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8" t="s">
+      <c r="A78" s="54"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54" t="s">
         <v>49</v>
       </c>
       <c r="E78" s="43">
@@ -4697,10 +4746,10 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8" t="s">
+      <c r="A79" s="54"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="54" t="s">
         <v>50</v>
       </c>
       <c r="E79" s="43">
@@ -4708,19 +4757,19 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8" t="s">
+      <c r="A80" s="54"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="8"/>
+      <c r="D80" s="54"/>
       <c r="E80" s="22"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="15" t="s">
+      <c r="A81" s="54"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="54"/>
+      <c r="D81" s="63" t="s">
         <v>49</v>
       </c>
       <c r="E81" s="38">
@@ -4728,10 +4777,10 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="15" t="s">
+      <c r="A82" s="54"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="63" t="s">
         <v>50</v>
       </c>
       <c r="E82" s="43">
@@ -4739,19 +4788,19 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8" t="s">
+      <c r="A83" s="54"/>
+      <c r="B83" s="54"/>
+      <c r="C83" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="D83" s="8"/>
+      <c r="D83" s="54"/>
       <c r="E83" s="23"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8" t="s">
+      <c r="A84" s="54"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="54" t="s">
         <v>49</v>
       </c>
       <c r="E84" s="29">
@@ -4759,10 +4808,10 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8" t="s">
+      <c r="A85" s="54"/>
+      <c r="B85" s="54"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="54" t="s">
         <v>50</v>
       </c>
       <c r="E85" s="29">
@@ -4770,19 +4819,19 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8" t="s">
+      <c r="A86" s="54"/>
+      <c r="B86" s="54"/>
+      <c r="C86" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D86" s="8"/>
+      <c r="D86" s="54"/>
       <c r="E86" s="23"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8" t="s">
+      <c r="A87" s="54"/>
+      <c r="B87" s="54"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="54" t="s">
         <v>49</v>
       </c>
       <c r="E87" s="38">
@@ -4790,10 +4839,10 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8" t="s">
+      <c r="A88" s="54"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="54" t="s">
         <v>50</v>
       </c>
       <c r="E88" s="23">
@@ -4801,19 +4850,19 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8" t="s">
+      <c r="A89" s="54"/>
+      <c r="B89" s="54"/>
+      <c r="C89" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="8"/>
+      <c r="D89" s="54"/>
       <c r="E89" s="23"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8" t="s">
+      <c r="A90" s="54"/>
+      <c r="B90" s="54"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="54" t="s">
         <v>57</v>
       </c>
       <c r="E90" s="39">
@@ -4821,10 +4870,10 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8" t="s">
+      <c r="A91" s="54"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="54" t="s">
         <v>49</v>
       </c>
       <c r="E91" s="41">
@@ -4832,10 +4881,10 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8" t="s">
+      <c r="A92" s="54"/>
+      <c r="B92" s="54"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="54" t="s">
         <v>50</v>
       </c>
       <c r="E92" s="37">
@@ -4843,66 +4892,65 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="D93" s="8"/>
+      <c r="D93" s="54"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>679566708.0200001</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="B94" s="8"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="15"/>
+      <c r="B94" s="54"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="63"/>
       <c r="E94" s="23"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
-      <c r="B95" s="12" t="s">
+      <c r="A95" s="54"/>
+      <c r="B95" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="54"/>
       <c r="E95" s="22"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="9"/>
+      <c r="H95" s="64"/>
+      <c r="I95" s="59"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8" t="s">
+      <c r="A96" s="54"/>
+      <c r="B96" s="54"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E96" s="46">
         <v>2935361</v>
       </c>
-      <c r="F96" s="10"/>
-      <c r="G96" s="8"/>
-      <c r="I96" s="9"/>
+      <c r="F96" s="64"/>
+      <c r="G96" s="54"/>
+      <c r="I96" s="59"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="8"/>
-      <c r="B97" s="12" t="s">
+      <c r="A97" s="54"/>
+      <c r="B97" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="54"/>
       <c r="E97" s="23"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="9"/>
+      <c r="F97" s="64"/>
+      <c r="G97" s="54"/>
+      <c r="H97" s="64"/>
+      <c r="I97" s="59"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8" t="s">
+      <c r="B98" s="54"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E98" s="43">
@@ -4910,17 +4958,17 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="54"/>
       <c r="E99" s="21"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8" t="s">
+      <c r="B100" s="54"/>
+      <c r="C100" s="54"/>
+      <c r="D100" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E100" s="33">
@@ -4928,17 +4976,17 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="54"/>
       <c r="E101" s="21"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="8"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="8" t="s">
+      <c r="B102" s="54"/>
+      <c r="C102" s="61"/>
+      <c r="D102" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E102" s="18">
@@ -4946,17 +4994,17 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="54"/>
       <c r="E103" s="21"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8" t="s">
+      <c r="B104" s="54"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E104" s="38">
@@ -4964,17 +5012,17 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
+      <c r="C105" s="54"/>
+      <c r="D105" s="54"/>
       <c r="E105" s="21"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8" t="s">
+      <c r="B106" s="54"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E106" s="43">
@@ -4982,17 +5030,17 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="54"/>
       <c r="E107" s="21"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8" t="s">
+      <c r="B108" s="54"/>
+      <c r="C108" s="54"/>
+      <c r="D108" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E108" s="43">
@@ -5000,43 +5048,40 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="12"/>
-      <c r="B109" s="12" t="s">
+      <c r="A109" s="58"/>
+      <c r="B109" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="54"/>
       <c r="E109" s="21"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8" t="s">
+      <c r="B110" s="54"/>
+      <c r="C110" s="54"/>
+      <c r="D110" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E110" s="43">
-        <f>3571697.99+3030555.47+35100</f>
         <v>6637353.4600000009</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="12" t="s">
+      <c r="A111" s="58" t="s">
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>27639505.009999998</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="16" t="s">
+      <c r="A112" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
+      <c r="B112" s="66"/>
+      <c r="C112" s="66"/>
+      <c r="D112" s="66"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>707206213.03000009</v>
       </c>
     </row>
